--- a/data/trans_camb/P44_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,38</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-31,14</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,16</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,11</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,3</t>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 5,9</t>
+          <t>-31,86; 1,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-58,46; -9,27</t>
+          <t>-32,35; -1,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -7,77</t>
+          <t>-33,31; -0,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 21,37</t>
+          <t>-31,78; 0,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 14,21</t>
+          <t>-4,89; 2,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 10,29</t>
+          <t>-4,96; 1,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 8,11</t>
+          <t>-5,29; 1,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,6; -5,1</t>
+          <t>-6,07; 0,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-38,78; -3,85</t>
+          <t>-16,4; 0,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,97; -1,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,08; -0,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; -0,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,02%</t>
+          <t>-67,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-71,18%</t>
+          <t>-97,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,66%</t>
+          <t>-89,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>-78,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>-25,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-28,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-51,46%</t>
+          <t>-59,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-49,28%</t>
+          <t>-58,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-81,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-74,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-75,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-84,41; 21,27</t>
+          <t>-100,0; 102,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-94,53; -15,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -10,04</t>
+          <t>-100,0; -23,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 110,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 71,27</t>
+          <t>-100,0; 320,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,94; 47,96</t>
+          <t>-83,45; 241,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 25,4</t>
+          <t>-81,3; 196,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,39; -12,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,42; -6,79</t>
+          <t>-94,66; 36,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-98,5; -41,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-95,38; -21,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-96,7; -17,15</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-7,49</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-1,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,98</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-11,09</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-12,93</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-7,19</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,8</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-8,18</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 16,46</t>
+          <t>-3,22; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 21,42</t>
+          <t>-3,42; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 17,23</t>
+          <t>-3,63; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,77; -1,39</t>
+          <t>-6,46; -1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -0,85</t>
+          <t>-6,22; 2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,07; -1,59</t>
+          <t>-8,75; -1,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 1,64</t>
+          <t>-8,03; -1,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 4,0</t>
+          <t>-11,08; -4,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 1,76</t>
+          <t>-3,69; 1,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; -0,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; -0,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; -3,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,78%</t>
+          <t>-83,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,36%</t>
+          <t>-23,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>-54,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>-50,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-85,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,82%</t>
+          <t>-15,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-38,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-39,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-84,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 61,47</t>
+          <t>-52,4; 135,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,6; 81,49</t>
+          <t>-59,37; 116,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 61,95</t>
+          <t>-58,96; 98,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,48; -5,16</t>
+          <t>-100,0; -14,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -1,6</t>
+          <t>-56,23; 33,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -4,86</t>
+          <t>-74,48; -18,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 5,35</t>
+          <t>-70,75; -17,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 13,3</t>
+          <t>-94,16; -61,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 5,65</t>
+          <t>-45,67; 30,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-62,25; -4,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,87; -5,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-93,52; -62,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,31</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,05</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 16,48</t>
+          <t>-6,28; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-44,55; -4,38</t>
+          <t>-7,6; 0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 9,1</t>
+          <t>-7,51; 0,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 14,37</t>
+          <t>-9,0; -1,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 13,39</t>
+          <t>-2,44; 5,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 9,03</t>
+          <t>-4,71; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 11,13</t>
+          <t>-5,49; 0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 0,33</t>
+          <t>-6,45; -0,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 3,22</t>
+          <t>-2,67; 3,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 0,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; -0,37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; -1,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-58,3%</t>
+          <t>-65,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,26%</t>
+          <t>-59,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-88,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>-35,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,67%</t>
+          <t>-68,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-30,24%</t>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-50,78%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-52,46%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-78,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 48,96</t>
+          <t>-74,98; 98,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,89; -7,79</t>
+          <t>-90,81; 14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,3; 29,31</t>
+          <t>-87,11; 48,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 65,09</t>
+          <t>-100,0; 8,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 60,47</t>
+          <t>-41,03; 178,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,57; 41,07</t>
+          <t>-72,28; 51,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 36,73</t>
+          <t>-77,4; 31,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 3,06</t>
+          <t>-91,57; -7,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 9,87</t>
+          <t>-43,21; 87,62</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-74,61; 6,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-76,23; -4,81</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-93,1; -43,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 7,8</t>
+          <t>-3,84; 2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 1,07</t>
+          <t>-6,38; -1,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 2,12</t>
+          <t>-7,4; -2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,84</t>
+          <t>-5,04; -0,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -2,23</t>
+          <t>-4,36; 2,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,32; -3,72</t>
+          <t>-7,71; -3,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -2,63</t>
+          <t>-3,77; 0,46</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; -1,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; -3,91</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-32,65%</t>
+          <t>-61,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>-77,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-31,44%</t>
+          <t>-24,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,54%</t>
+          <t>-81,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>-25,45%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-43,9%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-79,58%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 25,27</t>
+          <t>-48,62; 53,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 3,47</t>
+          <t>-81,78; -20,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 12,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 6,96</t>
+          <t>-93,74; -38,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,62; -2,07</t>
+          <t>-61,06; -0,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,52; -6,46</t>
+          <t>-55,91; 38,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,76; -10,31</t>
+          <t>-93,07; -59,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -7,46</t>
+          <t>-48,24; 8,77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-64,68; -14,64</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-89,96; -62,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-5,18</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-5,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 0,59</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; -1,89</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; -1,73</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; -3,64</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 0,18</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; -1,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; -2,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; -4,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; -0,2</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; -2,18</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; -2,43</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; -4,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-58,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-56,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-81,88%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-23,51%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-46,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-52,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-80,45%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-23,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-51,95%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-54,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-81,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-48,64; 12,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-75,0; -33,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,79; -31,79</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-91,45; -65,65</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-43,96; 2,98</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-61,17; -25,58</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-66,13; -34,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-88,7; -68,87</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; -3,38</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-63,48; -36,35</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-66,01; -39,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-87,42; -71,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
